--- a/my script/index/10X_index.xlsx
+++ b/my script/index/10X_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Note-Python\my script\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D2809C-E28F-48D7-A07D-0EDB75147B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE70A852-026C-4234-B1F3-74B361F26D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="484">
   <si>
     <t>SI-GA-A6</t>
   </si>
@@ -1479,50 +1479,20 @@
     <t>D</t>
   </si>
   <si>
-    <t>P168_1</t>
-  </si>
-  <si>
-    <t>P168_2</t>
-  </si>
-  <si>
-    <t>P168_3</t>
-  </si>
-  <si>
-    <t>P168_7</t>
-  </si>
-  <si>
-    <t>P168_8</t>
-  </si>
-  <si>
-    <t>P168_9</t>
-  </si>
-  <si>
-    <t>P168_13</t>
-  </si>
-  <si>
-    <t>P168_14</t>
-  </si>
-  <si>
-    <t>P168_15</t>
-  </si>
-  <si>
-    <t>P168_19</t>
-  </si>
-  <si>
-    <t>P168_20</t>
-  </si>
-  <si>
-    <t>P168_21</t>
-  </si>
-  <si>
     <t>sample_name</t>
+  </si>
+  <si>
+    <t>Kit_0827</t>
+  </si>
+  <si>
+    <t>Kit_0923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,6 +1505,25 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1572,17 +1561,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1924,7 +1954,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3578,7 +3608,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3594,112 +3624,96 @@
         <v>475</v>
       </c>
       <c r="B1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>486</v>
-      </c>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>487</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>489</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>490</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>492</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B8:B13">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>ISBLANK(B8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>(IF(NOT(ISBLANK(P8)), VALUE(COUNTIF($O$20:$O$497,P8)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISBLANK(A4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(IF(NOT(ISBLANK(O4)), VALUE(COUNTIF($O$20:$O$497,O4)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISBLANK(A2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>(IF(NOT(ISBLANK(K2)), VALUE(COUNTIF($N$23:$N$500,K2)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISBLANK(B2)</formula>
+      <formula>ISBLANK(A2)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>(IF(NOT(ISBLANK(P2)), VALUE(COUNTIF($O$20:$O$497,P2)), 0))&gt;1</formula>
+      <formula>(IF(NOT(ISBLANK(O2)), VALUE(COUNTIF($O$20:$O$497,O2)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/my script/index/10X_index.xlsx
+++ b/my script/index/10X_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Note-Python\my script\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE70A852-026C-4234-B1F3-74B361F26D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F78B983-EC43-4A67-B0BE-FC2A89B0DB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="10X_index" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="499">
   <si>
     <t>SI-GA-A6</t>
   </si>
@@ -1482,17 +1482,62 @@
     <t>sample_name</t>
   </si>
   <si>
-    <t>Kit_0827</t>
-  </si>
-  <si>
-    <t>Kit_0923</t>
+    <t>SI-GA-A1</t>
+  </si>
+  <si>
+    <t>GGTTTACT</t>
+  </si>
+  <si>
+    <t>CTAAACGG</t>
+  </si>
+  <si>
+    <t>TCGGCGTC</t>
+  </si>
+  <si>
+    <t>AACCGTAA</t>
+  </si>
+  <si>
+    <t>Con 0</t>
+  </si>
+  <si>
+    <t>N1KO 0</t>
+  </si>
+  <si>
+    <t>Con 2</t>
+  </si>
+  <si>
+    <t>N1KO 2</t>
+  </si>
+  <si>
+    <t>Con 5</t>
+  </si>
+  <si>
+    <t>N1KO 5</t>
+  </si>
+  <si>
+    <t>Con 10</t>
+  </si>
+  <si>
+    <t>N1KO 10</t>
+  </si>
+  <si>
+    <t>Con 14</t>
+  </si>
+  <si>
+    <t>N1KO14</t>
+  </si>
+  <si>
+    <t>Con 30</t>
+  </si>
+  <si>
+    <t>N1KO 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,19 +1556,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1561,48 +1593,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1951,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC2E7DA-38C6-4B1E-82F4-C9E62175444F}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1985,1616 +1994,1633 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E58" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E62" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C64" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E66" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>327</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D67" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E67" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C68" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E68" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E69" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E70" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E72" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E73" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B74" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D74" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E74" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C75" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D75" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E75" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B76" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E76" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C77" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D77" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E77" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E78" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>386</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E79" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D80" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E80" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D81" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E81" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B82" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C82" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E82" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B83" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D83" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C84" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D84" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E84" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B85" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D85" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E85" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E86" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C87" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D87" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E87" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B88" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C88" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D88" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E88" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C89" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D89" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E89" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="B90" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C90" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D90" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>445</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D91" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E91" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C92" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D92" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E92" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C93" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D93" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E93" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C94" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D94" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E94" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B95" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D95" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E95" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>465</v>
+      </c>
+      <c r="B96" t="s">
+        <v>466</v>
+      </c>
+      <c r="C96" t="s">
+        <v>467</v>
+      </c>
+      <c r="D96" t="s">
+        <v>468</v>
+      </c>
+      <c r="E96" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>470</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>471</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>472</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>473</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3605,15 +3631,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153F09A4-555D-4963-B291-73DEC7948192}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
@@ -3628,98 +3654,135 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B8:B13">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>ISBLANK(B8)</formula>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>ISBLANK(A14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>(IF(NOT(ISBLANK(P8)), VALUE(COUNTIF($O$20:$O$497,P8)), 0))&gt;1</formula>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>(IF(NOT(ISBLANK(O14)), VALUE(COUNTIF($O$20:$O$497,O14)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>ISBLANK(A4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>(IF(NOT(ISBLANK(O4)), VALUE(COUNTIF($O$20:$O$497,O4)), 0))&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>ISBLANK(A2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>(IF(NOT(ISBLANK(K2)), VALUE(COUNTIF($N$23:$N$500,K2)), 0))&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
+  <conditionalFormatting sqref="B2:B13">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>(IF(NOT(ISBLANK(O2)), VALUE(COUNTIF($O$20:$O$497,O2)), 0))&gt;1</formula>
+      <formula>(IF(NOT(ISBLANK(O2)), VALUE(COUNTIF($O$22:$O$499,O2)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name too long!" error="Our computers require names of 8bp or shorter. Please use the &quot;remarks&quot; field to enter your detailed sample information and select an alternative name that fits." prompt="Our computers require names of 8 characters or fewer." sqref="B2:B13" xr:uid="{6E31AFD2-B896-4CCE-9ED3-F3ECB15E54F7}">
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name too long!" error="Our computers require names of 8bp or shorter. Please use the &quot;remarks&quot; field to enter your detailed sample information and select an alternative name that fits." prompt="Our computers require names of 8 characters or fewer." sqref="B14:B17" xr:uid="{6F61FA8C-A1E6-4F6F-8B67-059A4E90E65D}">
       <formula1>8</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" sqref="B2:B13" xr:uid="{8DD50D78-57A1-4404-AE28-130CAED53EAD}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my script/index/10X_index.xlsx
+++ b/my script/index/10X_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Note-Python\my script\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F78B983-EC43-4A67-B0BE-FC2A89B0DB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331CC1F-B3D8-4CB9-8C8C-BD772E20F432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="10X_index" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="529">
   <si>
     <t>SI-GA-A6</t>
   </si>
@@ -1497,47 +1497,137 @@
     <t>AACCGTAA</t>
   </si>
   <si>
-    <t>Con 0</t>
-  </si>
-  <si>
-    <t>N1KO 0</t>
-  </si>
-  <si>
-    <t>Con 2</t>
-  </si>
-  <si>
-    <t>N1KO 2</t>
-  </si>
-  <si>
-    <t>Con 5</t>
-  </si>
-  <si>
-    <t>N1KO 5</t>
-  </si>
-  <si>
-    <t>Con 10</t>
-  </si>
-  <si>
-    <t>N1KO 10</t>
-  </si>
-  <si>
-    <t>Con 14</t>
-  </si>
-  <si>
-    <t>N1KO14</t>
-  </si>
-  <si>
-    <t>Con 30</t>
-  </si>
-  <si>
-    <t>N1KO 30</t>
+    <t>L001</t>
+  </si>
+  <si>
+    <t>L002</t>
+  </si>
+  <si>
+    <t>L003</t>
+  </si>
+  <si>
+    <t>L016</t>
+  </si>
+  <si>
+    <t>L018</t>
+  </si>
+  <si>
+    <t>L019</t>
+  </si>
+  <si>
+    <t>L021</t>
+  </si>
+  <si>
+    <t>L022</t>
+  </si>
+  <si>
+    <t>L023</t>
+  </si>
+  <si>
+    <t>L036</t>
+  </si>
+  <si>
+    <t>L038</t>
+  </si>
+  <si>
+    <t>L039</t>
+  </si>
+  <si>
+    <t>L041</t>
+  </si>
+  <si>
+    <t>L042</t>
+  </si>
+  <si>
+    <t>L043</t>
+  </si>
+  <si>
+    <t>L056</t>
+  </si>
+  <si>
+    <t>L057</t>
+  </si>
+  <si>
+    <t>L058</t>
+  </si>
+  <si>
+    <t>L062</t>
+  </si>
+  <si>
+    <t>L063</t>
+  </si>
+  <si>
+    <t>L064</t>
+  </si>
+  <si>
+    <t>L077</t>
+  </si>
+  <si>
+    <t>L078</t>
+  </si>
+  <si>
+    <t>L079</t>
+  </si>
+  <si>
+    <t>L081</t>
+  </si>
+  <si>
+    <t>L082</t>
+  </si>
+  <si>
+    <t>L083</t>
+  </si>
+  <si>
+    <t>L096</t>
+  </si>
+  <si>
+    <t>L097</t>
+  </si>
+  <si>
+    <t>L098</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>L102</t>
+  </si>
+  <si>
+    <t>L103</t>
+  </si>
+  <si>
+    <t>L116</t>
+  </si>
+  <si>
+    <t>L117</t>
+  </si>
+  <si>
+    <t>L118</t>
+  </si>
+  <si>
+    <t>L121</t>
+  </si>
+  <si>
+    <t>L122</t>
+  </si>
+  <si>
+    <t>L123</t>
+  </si>
+  <si>
+    <t>L136</t>
+  </si>
+  <si>
+    <t>L137</t>
+  </si>
+  <si>
+    <t>L138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1550,12 +1640,6 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1593,49 +1677,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1962,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC2E7DA-38C6-4B1E-82F4-C9E62175444F}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153F09A4-555D-4963-B291-73DEC7948192}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3654,31 +3706,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
+      <c r="A2" t="s">
+        <v>482</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>249</v>
+      <c r="A3" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>482</v>
+      <c r="A4" t="s">
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3686,16 +3738,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" t="s">
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>492</v>
@@ -3703,7 +3755,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>493</v>
@@ -3711,7 +3763,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>494</v>
@@ -3719,7 +3771,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>495</v>
@@ -3727,7 +3779,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>496</v>
@@ -3735,7 +3787,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>497</v>
@@ -3743,46 +3795,263 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="1"/>
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:B17">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>ISBLANK(A14)</formula>
+  <conditionalFormatting sqref="B2:B43">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISBLANK(B2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>(IF(NOT(ISBLANK(O14)), VALUE(COUNTIF($O$20:$O$497,O14)), 0))&gt;1</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>(IF(NOT(ISBLANK(P2)), VALUE(COUNTIF($O$22:$O$499,P2)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISBLANK(A2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>(IF(NOT(ISBLANK(O2)), VALUE(COUNTIF($O$22:$O$499,O2)), 0))&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name too long!" error="Our computers require names of 8bp or shorter. Please use the &quot;remarks&quot; field to enter your detailed sample information and select an alternative name that fits." prompt="Our computers require names of 8 characters or fewer." sqref="B14:B17" xr:uid="{6F61FA8C-A1E6-4F6F-8B67-059A4E90E65D}">
-      <formula1>8</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" sqref="B2:B13" xr:uid="{8DD50D78-57A1-4404-AE28-130CAED53EAD}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="B2:B43" xr:uid="{B7E96F90-AFB1-413F-B5EE-B2204BB0FE58}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my script/index/10X_index.xlsx
+++ b/my script/index/10X_index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Note-Python\my script\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331CC1F-B3D8-4CB9-8C8C-BD772E20F432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4142C2-2F0F-4F20-84CE-D8DEEC2544FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="494">
   <si>
     <t>SI-GA-A6</t>
   </si>
@@ -1497,130 +1497,25 @@
     <t>AACCGTAA</t>
   </si>
   <si>
-    <t>L001</t>
-  </si>
-  <si>
-    <t>L002</t>
-  </si>
-  <si>
-    <t>L003</t>
-  </si>
-  <si>
-    <t>L016</t>
-  </si>
-  <si>
-    <t>L018</t>
-  </si>
-  <si>
-    <t>L019</t>
-  </si>
-  <si>
-    <t>L021</t>
-  </si>
-  <si>
-    <t>L022</t>
-  </si>
-  <si>
-    <t>L023</t>
-  </si>
-  <si>
-    <t>L036</t>
-  </si>
-  <si>
-    <t>L038</t>
-  </si>
-  <si>
-    <t>L039</t>
-  </si>
-  <si>
-    <t>L041</t>
-  </si>
-  <si>
-    <t>L042</t>
-  </si>
-  <si>
-    <t>L043</t>
-  </si>
-  <si>
-    <t>L056</t>
-  </si>
-  <si>
-    <t>L057</t>
-  </si>
-  <si>
-    <t>L058</t>
-  </si>
-  <si>
-    <t>L062</t>
-  </si>
-  <si>
-    <t>L063</t>
-  </si>
-  <si>
-    <t>L064</t>
-  </si>
-  <si>
-    <t>L077</t>
-  </si>
-  <si>
-    <t>L078</t>
-  </si>
-  <si>
-    <t>L079</t>
-  </si>
-  <si>
-    <t>L081</t>
-  </si>
-  <si>
-    <t>L082</t>
-  </si>
-  <si>
-    <t>L083</t>
-  </si>
-  <si>
-    <t>L096</t>
-  </si>
-  <si>
-    <t>L097</t>
-  </si>
-  <si>
-    <t>L098</t>
-  </si>
-  <si>
-    <t>L101</t>
-  </si>
-  <si>
-    <t>L102</t>
-  </si>
-  <si>
-    <t>L103</t>
-  </si>
-  <si>
-    <t>L116</t>
-  </si>
-  <si>
-    <t>L117</t>
-  </si>
-  <si>
-    <t>L118</t>
-  </si>
-  <si>
-    <t>L121</t>
-  </si>
-  <si>
-    <t>L122</t>
-  </si>
-  <si>
-    <t>L123</t>
-  </si>
-  <si>
-    <t>L136</t>
-  </si>
-  <si>
-    <t>L137</t>
-  </si>
-  <si>
-    <t>L138</t>
+    <t>L022B</t>
+  </si>
+  <si>
+    <t>L038B</t>
+  </si>
+  <si>
+    <t>L058B</t>
+  </si>
+  <si>
+    <t>L078B</t>
+  </si>
+  <si>
+    <t>L083B</t>
+  </si>
+  <si>
+    <t>L121B</t>
+  </si>
+  <si>
+    <t>L138B</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1582,217 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3685,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153F09A4-555D-4963-B291-73DEC7948192}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3706,348 +3811,239 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>482</v>
+      <c r="A2" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>75</v>
+      <c r="A3" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>181</v>
+      <c r="A4" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>224</v>
+      <c r="A6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="A7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>17</v>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>494</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>495</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>496</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>498</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>499</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>500</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>528</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B43">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B11:B43">
+    <cfRule type="expression" dxfId="31" priority="17">
+      <formula>ISBLANK(B11)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="18">
+      <formula>(IF(NOT(ISBLANK(P11)), VALUE(COUNTIF($O$22:$O$499,P11)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="expression" dxfId="29" priority="15">
+      <formula>ISBLANK(A9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="16">
+      <formula>(IF(NOT(ISBLANK(O9)), VALUE(COUNTIF($O$22:$O$499,O9)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>ISBLANK(B2)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>(IF(NOT(ISBLANK(P2)), VALUE(COUNTIF($O$22:$O$499,P2)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>ISBLANK(B3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>(IF(NOT(ISBLANK(P3)), VALUE(COUNTIF($O$22:$O$499,P3)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>ISBLANK(B4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>(IF(NOT(ISBLANK(P4)), VALUE(COUNTIF($O$22:$O$499,P4)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>ISBLANK(B5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>(IF(NOT(ISBLANK(P5)), VALUE(COUNTIF($O$22:$O$499,P5)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISBLANK(B6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(IF(NOT(ISBLANK(P6)), VALUE(COUNTIF($O$22:$O$499,P6)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISBLANK(B7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>(IF(NOT(ISBLANK(P7)), VALUE(COUNTIF($O$22:$O$499,P7)), 0))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISBLANK(B8)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>(IF(NOT(ISBLANK(P2)), VALUE(COUNTIF($O$22:$O$499,P2)), 0))&gt;1</formula>
+      <formula>(IF(NOT(ISBLANK(P8)), VALUE(COUNTIF($O$22:$O$499,P8)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/my script/index/10X_index.xlsx
+++ b/my script/index/10X_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Note-Python\my script\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4142C2-2F0F-4F20-84CE-D8DEEC2544FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5AF55-6E62-45C9-8F4B-72E6E245C14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{676AD2A3-1659-407B-9B19-EA1698E73FC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="499">
   <si>
     <t>SI-GA-A6</t>
   </si>
@@ -1497,25 +1497,40 @@
     <t>AACCGTAA</t>
   </si>
   <si>
-    <t>L022B</t>
-  </si>
-  <si>
-    <t>L038B</t>
-  </si>
-  <si>
-    <t>L058B</t>
-  </si>
-  <si>
-    <t>L078B</t>
-  </si>
-  <si>
-    <t>L083B</t>
-  </si>
-  <si>
-    <t>L121B</t>
-  </si>
-  <si>
-    <t>L138B</t>
+    <t>Con 0</t>
+  </si>
+  <si>
+    <t>N1KO 0</t>
+  </si>
+  <si>
+    <t>Con 2</t>
+  </si>
+  <si>
+    <t>N1KO 2</t>
+  </si>
+  <si>
+    <t>Con 5</t>
+  </si>
+  <si>
+    <t>N1KO 5</t>
+  </si>
+  <si>
+    <t>Con 10</t>
+  </si>
+  <si>
+    <t>N1KO 10</t>
+  </si>
+  <si>
+    <t>Con 14</t>
+  </si>
+  <si>
+    <t>N1KO14</t>
+  </si>
+  <si>
+    <t>Con 30</t>
+  </si>
+  <si>
+    <t>N1KO 30</t>
   </si>
 </sst>
 </file>
@@ -1582,105 +1597,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -2120,7 +2037,7 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3791,7 +3708,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3812,7 +3729,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>487</v>
@@ -3820,7 +3737,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>488</v>
@@ -3828,7 +3745,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>482</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>489</v>
@@ -3836,7 +3753,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>490</v>
@@ -3844,7 +3761,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>491</v>
@@ -3852,7 +3769,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>492</v>
@@ -3860,28 +3777,51 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="1"/>
@@ -3975,18 +3915,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B43">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>ISBLANK(B11)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>(IF(NOT(ISBLANK(P11)), VALUE(COUNTIF($O$22:$O$499,P11)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>ISBLANK(A9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>(IF(NOT(ISBLANK(O9)), VALUE(COUNTIF($O$22:$O$499,O9)), 0))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
